--- a/samples/target_pilpres.xlsx
+++ b/samples/target_pilpres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taufi\OneDrive\Dokumente\MyProjects\quickcount\sms-ocr-server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taufi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F239943-7F41-4EFA-8EA8-B23230FCB6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F065779C-EFE7-4CBF-84E6-EB580A8B1910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>UID</t>
   </si>
   <si>
+    <t>Korwil</t>
+  </si>
+  <si>
     <t>Provinsi</t>
   </si>
   <si>
@@ -34,34 +37,10 @@
     <t>Kecamatan</t>
   </si>
   <si>
-    <t>SHM</t>
-  </si>
-  <si>
-    <t>4N5</t>
-  </si>
-  <si>
-    <t>V3V</t>
-  </si>
-  <si>
-    <t>XWK</t>
-  </si>
-  <si>
-    <t>19K</t>
-  </si>
-  <si>
-    <t>JFT</t>
-  </si>
-  <si>
-    <t>MH5</t>
-  </si>
-  <si>
-    <t>9WD</t>
-  </si>
-  <si>
-    <t>6G8</t>
-  </si>
-  <si>
-    <t>K5C</t>
+    <t>Kelurahan</t>
+  </si>
+  <si>
+    <t>Agus</t>
   </si>
   <si>
     <t>Jawa Barat</t>
@@ -73,9 +52,18 @@
     <t>Sukmajaya</t>
   </si>
   <si>
+    <t>Tirtajaya</t>
+  </si>
+  <si>
     <t>Beji</t>
   </si>
   <si>
+    <t>Beji Timur</t>
+  </si>
+  <si>
+    <t>Sukma</t>
+  </si>
+  <si>
     <t>Jawa Timur</t>
   </si>
   <si>
@@ -85,40 +73,94 @@
     <t>Bungah</t>
   </si>
   <si>
+    <t>Sukowati</t>
+  </si>
+  <si>
     <t>Duduksampeyan</t>
   </si>
   <si>
+    <t>Sumari</t>
+  </si>
+  <si>
     <t>Ujungpangkah</t>
   </si>
   <si>
+    <t>Tanjangawan</t>
+  </si>
+  <si>
+    <t>Maimun</t>
+  </si>
+  <si>
     <t>Banten</t>
   </si>
   <si>
     <t>Pandeglang</t>
   </si>
   <si>
+    <t>Pagelaran</t>
+  </si>
+  <si>
+    <t>Harapankarya</t>
+  </si>
+  <si>
+    <t>Sumur</t>
+  </si>
+  <si>
+    <t>Kertamukti</t>
+  </si>
+  <si>
+    <t>Cimanuk</t>
+  </si>
+  <si>
+    <t>Batubantar</t>
+  </si>
+  <si>
+    <t>Encang</t>
+  </si>
+  <si>
     <t>Lebak</t>
   </si>
   <si>
-    <t>Pagelaran</t>
-  </si>
-  <si>
-    <t>Sumur</t>
-  </si>
-  <si>
-    <t>Cimanuk</t>
-  </si>
-  <si>
     <t>Cilograng</t>
   </si>
   <si>
+    <t>Pasirbungur</t>
+  </si>
+  <si>
     <t>Cileles</t>
   </si>
   <si>
-    <t>Korwil</t>
-  </si>
-  <si>
-    <t>Kelurahan</t>
+    <t>Banjarsari</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>UBQ</t>
+  </si>
+  <si>
+    <t>25H</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>FV6</t>
+  </si>
+  <si>
+    <t>2AQ</t>
+  </si>
+  <si>
+    <t>CTJ</t>
+  </si>
+  <si>
+    <t>V4R</t>
+  </si>
+  <si>
+    <t>M9B</t>
+  </si>
+  <si>
+    <t>CGN</t>
   </si>
 </sst>
 </file>
@@ -152,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,17 +217,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -198,9 +229,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,109 +535,137 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -617,12 +674,18 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -633,10 +696,16 @@
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -645,35 +714,50 @@
         <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>12</v>
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>13</v>
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
